--- a/data/df_processed.xlsx
+++ b/data/df_processed.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="242">
   <si>
     <t>Artista</t>
   </si>
@@ -33,12 +33,12 @@
     <t>Grafit Studio</t>
   </si>
   <si>
+    <t>Lorenzo Mastroianni</t>
+  </si>
+  <si>
     <t>Anna Podedworna</t>
   </si>
   <si>
-    <t>Lorenzo Mastroianni</t>
-  </si>
-  <si>
     <t>Bartłomiej Gaweł</t>
   </si>
   <si>
@@ -51,105 +51,114 @@
     <t>Diego Almeida</t>
   </si>
   <si>
+    <t>Maciej Łaszkiewicz</t>
+  </si>
+  <si>
     <t>Nemanja Stankovic</t>
   </si>
   <si>
     <t>Marek Madej</t>
   </si>
   <si>
-    <t>Maciej Łaszkiewicz</t>
+    <t>Karol Bem</t>
   </si>
   <si>
     <t>Manuel Castañón</t>
   </si>
   <si>
+    <t>Christof Grobelski</t>
+  </si>
+  <si>
     <t>Alicja Kapustka</t>
   </si>
   <si>
-    <t>Christof Grobelski</t>
+    <t>Valeriy Vegera</t>
   </si>
   <si>
     <t>Marta Dettlaff</t>
   </si>
   <si>
-    <t>Karol Bem</t>
-  </si>
-  <si>
     <t>Bruno Biazotto</t>
   </si>
   <si>
+    <t>Aleksandra Wojtas</t>
+  </si>
+  <si>
+    <t>Katarzyna Bekus</t>
+  </si>
+  <si>
+    <t>Sandra Chlewińska</t>
+  </si>
+  <si>
     <t>Yama Orce</t>
   </si>
   <si>
-    <t>Valeriy Vegera</t>
-  </si>
-  <si>
-    <t>Aleksandra Wojtas</t>
+    <t>Oleksndr Kozachenko</t>
+  </si>
+  <si>
+    <t>Zuzanna Kapuścińska</t>
+  </si>
+  <si>
+    <t>Anton Nazarenko</t>
+  </si>
+  <si>
+    <t>Adrian Smith</t>
   </si>
   <si>
     <t>Danel Valaisis</t>
   </si>
   <si>
-    <t>Adrian Smith</t>
-  </si>
-  <si>
     <t>Kasia Bekus</t>
   </si>
   <si>
-    <t>Sandra Chlewińska</t>
-  </si>
-  <si>
     <t>Ilker Serdar Yildiz</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>Oleksandr Kozachenko</t>
-  </si>
-  <si>
-    <t>Katarzyna Bekus</t>
+    <t>Katarzyna Redesiuk</t>
   </si>
   <si>
     <t>Astor Alexander</t>
   </si>
   <si>
-    <t>Zuzanna Kapuścińska</t>
-  </si>
-  <si>
-    <t>Katarzyna Redesiuk</t>
+    <t>Bogdan Rezunenko</t>
   </si>
   <si>
     <t>Chris Rallis</t>
   </si>
   <si>
+    <t>Tomas Duchek</t>
+  </si>
+  <si>
     <t>Kevin Zamir Goeke</t>
   </si>
   <si>
     <t>Volmi Games</t>
   </si>
   <si>
-    <t>Tomas Duchek</t>
-  </si>
-  <si>
     <t>VOLMI Games</t>
   </si>
   <si>
     <t>Alicja Użarowska</t>
   </si>
   <si>
+    <t>Grafit Art</t>
+  </si>
+  <si>
     <t>Gwent Art Team</t>
   </si>
   <si>
-    <t>Grafit Art</t>
-  </si>
-  <si>
     <t>Grosnez</t>
   </si>
   <si>
     <t>Noah Bradley</t>
   </si>
   <si>
+    <t>Tokkun Studio</t>
+  </si>
+  <si>
     <t>Sławomir Maniak</t>
   </si>
   <si>
@@ -168,72 +177,69 @@
     <t>Ørjan Ruttenborg Svendsen</t>
   </si>
   <si>
+    <t>Bryan Sola/ Bartłomiej Gaweł</t>
+  </si>
+  <si>
+    <t>James Daly</t>
+  </si>
+  <si>
+    <t>Filipe Pagliuso</t>
+  </si>
+  <si>
+    <t>Form Language Studio</t>
+  </si>
+  <si>
+    <t>Bayard Wu</t>
+  </si>
+  <si>
     <t>Grafit Art / Lorenzo Mastroianni</t>
   </si>
   <si>
-    <t>Bryan Sola/ Bartłomiej Gaweł</t>
-  </si>
-  <si>
-    <t>James Daly</t>
-  </si>
-  <si>
-    <t>Filipe Pagliuso</t>
-  </si>
-  <si>
-    <t>Anton Nazarenko</t>
-  </si>
-  <si>
-    <t>Bayard Wu</t>
-  </si>
-  <si>
-    <t>Form Language Studio</t>
+    <t>Dario Jelusic</t>
+  </si>
+  <si>
+    <t>Devos Florian</t>
+  </si>
+  <si>
+    <t>Dave Rapoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katarzyna Redesiuk, Grafit Studio </t>
+  </si>
+  <si>
+    <t>Darek Zabrocki</t>
+  </si>
+  <si>
+    <t>Paweł Świeżak, Bartłomiej Gaweł</t>
+  </si>
+  <si>
+    <t>Bruno Biazotto, Katarzyna Redesiuk</t>
+  </si>
+  <si>
+    <t>Anna Podedworna, Bartłomiej Gaweł</t>
+  </si>
+  <si>
+    <t>Andrew Kuzinskiy</t>
+  </si>
+  <si>
+    <t>Alexandre Mokhov</t>
   </si>
   <si>
     <t>Rudy Siswanto</t>
   </si>
   <si>
-    <t>Dave Rapoza</t>
-  </si>
-  <si>
-    <t>Darek Zabrocki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katarzyna Redesiuk, Grafit Studio </t>
-  </si>
-  <si>
-    <t>Tokkun Studio</t>
+    <t>Dário Coelho</t>
   </si>
   <si>
     <t>Paweł Świeżak</t>
   </si>
   <si>
-    <t>Bruno Biazotto, Katarzyna Redesiuk</t>
-  </si>
-  <si>
-    <t>Anna Podedworna, Bartłomiej Gaweł</t>
-  </si>
-  <si>
-    <t>Andrew Kuzinskiy</t>
-  </si>
-  <si>
-    <t>Alexandre Mokhov</t>
-  </si>
-  <si>
-    <t>Paweł Świeżak, Bartłomiej Gaweł</t>
-  </si>
-  <si>
-    <t>Devos Florian</t>
-  </si>
-  <si>
     <t>Paweł Brudniak</t>
   </si>
   <si>
     <t>Jason Kang / Lorenzo Mastroianni</t>
   </si>
   <si>
-    <t>Dário Coelho</t>
-  </si>
-  <si>
     <t>Grafit Art / Bogna Gawrońska</t>
   </si>
   <si>
@@ -243,27 +249,27 @@
     <t>Michael Mac Rae</t>
   </si>
   <si>
+    <t>Grzegorz Rutkowski</t>
+  </si>
+  <si>
     <t>Mauro Belfiore</t>
   </si>
   <si>
-    <t>Grzegorz Rutkowski</t>
-  </si>
-  <si>
     <t>Hugo Richard, Marek Madej</t>
   </si>
   <si>
     <t>Igloo</t>
   </si>
   <si>
+    <t>Alejandro Mirabal</t>
+  </si>
+  <si>
+    <t>Ivan Vilmant</t>
+  </si>
+  <si>
     <t>Ilker Serdar Yildiz, Marek Madej</t>
   </si>
   <si>
-    <t>Alejandro Mirabal</t>
-  </si>
-  <si>
-    <t>Ivan Vilmant</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -312,13 +318,16 @@
     <t>Beast</t>
   </si>
   <si>
+    <t>Elf</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
     <t>Mage</t>
   </si>
   <si>
-    <t>Elf</t>
-  </si>
-  <si>
-    <t>Warrior</t>
+    <t>Knight</t>
   </si>
   <si>
     <t>Dwarf</t>
@@ -327,9 +336,6 @@
     <t>Ogroid</t>
   </si>
   <si>
-    <t>Knight</t>
-  </si>
-  <si>
     <t>Token</t>
   </si>
   <si>
@@ -342,99 +348,105 @@
     <t>Cursed</t>
   </si>
   <si>
+    <t>Wild Hunt</t>
+  </si>
+  <si>
     <t>Alchemy</t>
   </si>
   <si>
+    <t>Crime</t>
+  </si>
+  <si>
     <t>Vampire</t>
   </si>
   <si>
-    <t>Crime</t>
-  </si>
-  <si>
     <t>Bandit</t>
   </si>
   <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Dryad</t>
+  </si>
+  <si>
     <t>Insectoid</t>
   </si>
   <si>
     <t>Blindeyes</t>
   </si>
   <si>
+    <t>Firesworn</t>
+  </si>
+  <si>
+    <t>Tactic</t>
+  </si>
+  <si>
+    <t>Relict</t>
+  </si>
+  <si>
     <t>Organic</t>
   </si>
   <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>Relict</t>
+    <t>Specter</t>
   </si>
   <si>
     <t>Cutups</t>
   </si>
   <si>
-    <t>Specter</t>
-  </si>
-  <si>
     <t>Crownsplitters</t>
   </si>
   <si>
     <t>Tidecloaks</t>
   </si>
   <si>
-    <t>Tactic</t>
+    <t>Salamandra</t>
   </si>
   <si>
     <t>Cultist</t>
   </si>
   <si>
+    <t>Aristocrat</t>
+  </si>
+  <si>
     <t>Necrophage</t>
   </si>
   <si>
-    <t>Dryad</t>
-  </si>
-  <si>
-    <t>Salamandra</t>
-  </si>
-  <si>
-    <t>Aristocrat</t>
+    <t>Nature</t>
   </si>
   <si>
     <t>Siege Engine</t>
   </si>
   <si>
+    <t>Druid</t>
+  </si>
+  <si>
     <t>Pirate</t>
   </si>
   <si>
-    <t>Druid</t>
+    <t>Ship</t>
+  </si>
+  <si>
+    <t>Warfare</t>
   </si>
   <si>
     <t>Construct</t>
   </si>
   <si>
-    <t>Wild Hunt</t>
+    <t>Raid</t>
   </si>
   <si>
     <t>Bomb</t>
   </si>
   <si>
-    <t>Firesworn</t>
-  </si>
-  <si>
-    <t>Ship</t>
-  </si>
-  <si>
     <t>Witch Hunter</t>
   </si>
   <si>
+    <t>Treant</t>
+  </si>
+  <si>
     <t>Cleric</t>
   </si>
   <si>
-    <t>Warfare</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
     <t>Dragon</t>
   </si>
   <si>
@@ -444,12 +456,12 @@
     <t>Scenario</t>
   </si>
   <si>
+    <t>Demon</t>
+  </si>
+  <si>
     <t>Support</t>
   </si>
   <si>
-    <t>Treant</t>
-  </si>
-  <si>
     <t>Crone</t>
   </si>
   <si>
@@ -459,18 +471,15 @@
     <t>Gnome</t>
   </si>
   <si>
-    <t>Demon</t>
-  </si>
-  <si>
-    <t>Raid</t>
-  </si>
-  <si>
     <t>Doomed</t>
   </si>
   <si>
     <t>Plant</t>
   </si>
   <si>
+    <t>Hazard</t>
+  </si>
+  <si>
     <t>Abilites</t>
   </si>
   <si>
@@ -489,67 +498,76 @@
     <t>Melee</t>
   </si>
   <si>
+    <t>Spawn</t>
+  </si>
+  <si>
     <t>Ranged</t>
   </si>
   <si>
-    <t>Spawn</t>
+    <t>Zeal</t>
+  </si>
+  <si>
+    <t>Counter</t>
   </si>
   <si>
     <t>Summon</t>
   </si>
   <si>
-    <t>Zeal</t>
-  </si>
-  <si>
     <t>Armor</t>
   </si>
   <si>
-    <t>Counter</t>
-  </si>
-  <si>
     <t>Maxtargets</t>
   </si>
   <si>
+    <t>Bleeding</t>
+  </si>
+  <si>
     <t>Charge</t>
   </si>
   <si>
-    <t>Bleeding</t>
+    <t>Deathblow</t>
   </si>
   <si>
     <t>Deathwish</t>
   </si>
   <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
     <t>Cooldown</t>
   </si>
   <si>
     <t>Charges</t>
   </si>
   <si>
-    <t>Deathblow</t>
-  </si>
-  <si>
-    <t>Profit</t>
-  </si>
-  <si>
     <t>Shield</t>
   </si>
   <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Bleed</t>
   </si>
   <si>
+    <t>Veil</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>Coin</t>
+  </si>
+  <si>
+    <t>Vitality</t>
+  </si>
+  <si>
     <t>Lock</t>
   </si>
   <si>
-    <t>Fee</t>
-  </si>
-  <si>
-    <t>Coin</t>
+    <t>Tribute</t>
   </si>
   <si>
     <t>Purify</t>
@@ -558,133 +576,166 @@
     <t>Power</t>
   </si>
   <si>
-    <t>Tribute</t>
-  </si>
-  <si>
-    <t>Vitality</t>
+    <t>Create</t>
   </si>
   <si>
     <t>Poison</t>
   </si>
   <si>
-    <t>Create</t>
+    <t>Devotion</t>
+  </si>
+  <si>
+    <t>Coins</t>
   </si>
   <si>
     <t>Banish</t>
   </si>
   <si>
+    <t>Bloodthirst</t>
+  </si>
+  <si>
+    <t>Thrive</t>
+  </si>
+  <si>
+    <t>Formation</t>
+  </si>
+  <si>
+    <t>Intimidate</t>
+  </si>
+  <si>
     <t>Heal</t>
   </si>
   <si>
+    <t>Barricade</t>
+  </si>
+  <si>
     <t>Consume</t>
   </si>
   <si>
-    <t>Coins</t>
-  </si>
-  <si>
-    <t>Thrive</t>
-  </si>
-  <si>
-    <t>Formation</t>
-  </si>
-  <si>
-    <t>Bloodthirst</t>
+    <t>Immune</t>
+  </si>
+  <si>
+    <t>Disloyal</t>
+  </si>
+  <si>
+    <t>Dominance</t>
+  </si>
+  <si>
+    <t>Bonded</t>
+  </si>
+  <si>
+    <t>Inspired</t>
+  </si>
+  <si>
+    <t>Hoard</t>
+  </si>
+  <si>
+    <t>Assimilate</t>
+  </si>
+  <si>
+    <t>Discard</t>
+  </si>
+  <si>
+    <t>Frost</t>
+  </si>
+  <si>
+    <t>Berserk</t>
+  </si>
+  <si>
+    <t>Seize</t>
   </si>
   <si>
     <t>Spying</t>
   </si>
   <si>
-    <t>Barricade</t>
-  </si>
-  <si>
-    <t>Intimidate</t>
-  </si>
-  <si>
-    <t>Bonded</t>
-  </si>
-  <si>
-    <t>Inspired</t>
-  </si>
-  <si>
-    <t>Immune</t>
-  </si>
-  <si>
-    <t>Dominance</t>
-  </si>
-  <si>
-    <t>Discard</t>
-  </si>
-  <si>
-    <t>Hoard</t>
-  </si>
-  <si>
-    <t>Berserk</t>
+    <t>Crew</t>
+  </si>
+  <si>
+    <t>Resilient</t>
+  </si>
+  <si>
+    <t>Reveal</t>
+  </si>
+  <si>
+    <t>Echo</t>
+  </si>
+  <si>
+    <t>Exposed</t>
+  </si>
+  <si>
+    <t>Harmony</t>
+  </si>
+  <si>
+    <t>Ambush</t>
   </si>
   <si>
     <t>Bounty</t>
   </si>
   <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>Harmony</t>
-  </si>
-  <si>
-    <t>Reveal</t>
-  </si>
-  <si>
-    <t>Assimilate</t>
-  </si>
-  <si>
-    <t>Exposed</t>
-  </si>
-  <si>
-    <t>Ambush</t>
-  </si>
-  <si>
-    <t>Resilient</t>
-  </si>
-  <si>
     <t>Insanity</t>
   </si>
   <si>
     <t>Defender</t>
   </si>
   <si>
-    <t>Crew</t>
-  </si>
-  <si>
-    <t>Seize</t>
-  </si>
-  <si>
     <t>Restoration</t>
   </si>
   <si>
+    <t>Conspiracy</t>
+  </si>
+  <si>
+    <t>Provision</t>
+  </si>
+  <si>
     <t>Resupply</t>
   </si>
   <si>
     <t>Spring</t>
   </si>
   <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>Symbiosis</t>
+  </si>
+  <si>
     <t>Duel</t>
   </si>
   <si>
-    <t>Provision</t>
-  </si>
-  <si>
     <t>Initiative</t>
   </si>
   <si>
     <t>Drain</t>
   </si>
   <si>
+    <t>Fog</t>
+  </si>
+  <si>
+    <t>Dragons_dream</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Blood_moon</t>
+  </si>
+  <si>
+    <t>Cataclysm</t>
+  </si>
+  <si>
     <t>Provisions</t>
   </si>
   <si>
     <t>Set</t>
   </si>
   <si>
-    <t>Count</t>
+    <t>Rupture</t>
   </si>
   <si>
     <t>Syndicate</t>
@@ -1054,7 +1105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1076,7 +1127,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1087,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1098,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1109,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1131,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1153,7 +1204,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1164,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1175,7 +1226,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1186,7 +1237,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1197,7 +1248,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1219,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1230,7 +1281,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1241,7 +1292,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1252,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1263,7 +1314,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1274,7 +1325,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1285,7 +1336,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1296,7 +1347,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1307,7 +1358,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1318,7 +1369,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1329,7 +1380,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1340,7 +1391,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1351,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1362,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1373,7 +1424,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1384,7 +1435,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1406,7 +1457,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1417,7 +1468,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1450,7 +1501,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1461,7 +1512,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1472,7 +1523,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1505,7 +1556,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1516,7 +1567,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1659,7 +1710,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1670,7 +1721,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1923,6 +1974,28 @@
         <v>79</v>
       </c>
       <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81">
         <v>1</v>
       </c>
     </row>
@@ -1941,7 +2014,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1952,10 +2025,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2">
-        <v>707</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1963,10 +2036,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1974,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>37</v>
@@ -1985,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>13</v>
@@ -2006,7 +2079,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2017,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2028,10 +2101,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2039,10 +2112,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2050,10 +2123,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2061,10 +2134,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2072,10 +2145,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2085,7 +2158,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2093,7 +2166,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2104,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2">
-        <v>344</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2115,10 +2188,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2126,10 +2199,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2137,10 +2210,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2148,10 +2221,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2159,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2170,7 +2243,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8">
         <v>32</v>
@@ -2181,7 +2254,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C9">
         <v>32</v>
@@ -2192,10 +2265,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2203,10 +2276,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2214,10 +2287,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2225,7 +2298,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C13">
         <v>24</v>
@@ -2236,10 +2309,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2247,10 +2320,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2258,7 +2331,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C16">
         <v>21</v>
@@ -2269,10 +2342,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2280,10 +2353,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2291,10 +2364,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2302,10 +2375,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2313,10 +2386,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2324,10 +2397,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2335,10 +2408,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2346,10 +2419,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2357,10 +2430,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2368,10 +2441,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2379,10 +2452,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2390,10 +2463,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2401,10 +2474,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2412,10 +2485,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2423,10 +2496,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2434,10 +2507,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2445,10 +2518,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2456,10 +2529,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2467,10 +2540,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2478,10 +2551,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2489,10 +2562,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2500,10 +2573,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2511,10 +2584,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2522,10 +2595,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2533,10 +2606,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2544,10 +2617,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2555,10 +2628,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2566,10 +2639,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2577,10 +2650,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2588,7 +2661,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -2599,7 +2672,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -2610,10 +2683,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2621,10 +2694,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2632,10 +2705,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2643,10 +2716,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2654,10 +2727,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2665,10 +2738,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2676,7 +2749,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -2687,7 +2760,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -2698,10 +2771,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2709,7 +2782,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2720,9 +2793,20 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59">
         <v>1</v>
       </c>
     </row>
@@ -2733,7 +2817,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2741,7 +2825,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2752,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2">
-        <v>420</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2763,10 +2847,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C3">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2774,10 +2858,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C4">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2785,10 +2869,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C5">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2796,10 +2880,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C6">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2807,10 +2891,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C7">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2818,10 +2902,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C8">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2829,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C9">
         <v>59</v>
@@ -2840,10 +2924,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2851,10 +2935,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2862,10 +2946,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2873,10 +2957,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2884,10 +2968,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2895,10 +2979,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2906,10 +2990,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2917,10 +3001,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2928,7 +3012,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C18">
         <v>31</v>
@@ -2939,10 +3023,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2950,10 +3034,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2961,10 +3045,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2972,10 +3056,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2983,10 +3067,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2994,10 +3078,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3005,10 +3089,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3016,10 +3100,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3027,10 +3111,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3038,10 +3122,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3049,10 +3133,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3060,10 +3144,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3071,10 +3155,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3082,10 +3166,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3093,10 +3177,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3104,10 +3188,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3115,10 +3199,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3126,10 +3210,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3137,10 +3221,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3148,10 +3232,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3159,10 +3243,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3170,10 +3254,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C40">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3181,10 +3265,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3192,10 +3276,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3203,10 +3287,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3214,10 +3298,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C44">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3225,10 +3309,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3236,10 +3320,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3247,10 +3331,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3258,10 +3342,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3269,10 +3353,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3280,10 +3364,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3291,10 +3375,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3302,10 +3386,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3313,10 +3397,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3324,10 +3408,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3335,10 +3419,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3346,10 +3430,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3357,10 +3441,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3368,10 +3452,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3379,10 +3463,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3390,10 +3474,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3401,10 +3485,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3412,10 +3496,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3423,10 +3507,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3434,10 +3518,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3445,10 +3529,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3456,10 +3540,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3467,10 +3551,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3478,10 +3562,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3489,10 +3573,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3500,10 +3584,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3511,10 +3595,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3522,10 +3606,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3533,9 +3617,163 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>230</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>231</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>237</v>
+      </c>
+      <c r="C87">
         <v>1</v>
       </c>
     </row>
@@ -3554,28 +3792,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3583,28 +3821,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D2">
+        <v>112</v>
+      </c>
+      <c r="E2">
         <v>102</v>
       </c>
-      <c r="E2">
-        <v>90</v>
-      </c>
       <c r="F2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I2">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3612,28 +3850,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3641,7 +3879,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>19</v>
@@ -3670,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -3709,28 +3947,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3741,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
         <v>19</v>
       </c>
-      <c r="H2">
-        <v>17</v>
-      </c>
       <c r="I2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3773,16 +4011,16 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -3802,7 +4040,7 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -3811,13 +4049,13 @@
         <v>13</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3828,25 +4066,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3857,25 +4095,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6">
+        <v>37</v>
+      </c>
+      <c r="I6">
         <v>34</v>
-      </c>
-      <c r="I6">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3889,22 +4127,22 @@
         <v>27</v>
       </c>
       <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>17</v>
-      </c>
       <c r="I7">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3915,25 +4153,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3944,13 +4182,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -3973,7 +4211,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4183,28 +4421,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4218,22 +4456,22 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4256,13 +4494,13 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4425,28 +4663,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4457,25 +4695,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4573,25 +4811,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I6">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4602,25 +4840,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>26</v>
+      </c>
+      <c r="H7">
         <v>27</v>
       </c>
-      <c r="G7">
-        <v>25</v>
-      </c>
-      <c r="H7">
-        <v>25</v>
-      </c>
       <c r="I7">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4631,13 +4869,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -4649,7 +4887,7 @@
         <v>10</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4663,22 +4901,22 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4689,22 +4927,22 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>13</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I10">
         <v>14</v>
@@ -4718,7 +4956,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -4727,16 +4965,16 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4747,25 +4985,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>9</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4776,25 +5014,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4805,16 +5043,16 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -4823,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
